--- a/data.xlsx
+++ b/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="105">
   <si>
     <t>No.</t>
   </si>
@@ -221,66 +221,69 @@
     <t>9591035962</t>
   </si>
   <si>
+    <t>Sampi</t>
+  </si>
+  <si>
+    <t>6361511601</t>
+  </si>
+  <si>
+    <t>Lavan</t>
+  </si>
+  <si>
+    <t>0914878356</t>
+  </si>
+  <si>
+    <t>Tamma - Sitava</t>
+  </si>
+  <si>
+    <t>6361168826</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>Repay</t>
+  </si>
+  <si>
+    <t>Due on</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>15-Oct-2025</t>
+  </si>
+  <si>
+    <t>Transferred</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Laxman</t>
+  </si>
+  <si>
+    <t>Naveen P</t>
+  </si>
+  <si>
     <t>Sundar</t>
   </si>
   <si>
-    <t>9663166509</t>
-  </si>
-  <si>
-    <t>Lavan</t>
-  </si>
-  <si>
-    <t>0914878356</t>
-  </si>
-  <si>
-    <t>Tamma - Sitava</t>
-  </si>
-  <si>
-    <t>6361168826</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Loan</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>Repay</t>
-  </si>
-  <si>
-    <t>Due on</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>15-Oct-2025</t>
-  </si>
-  <si>
-    <t>Transferred</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Laxman</t>
-  </si>
-  <si>
-    <t>Naveen P</t>
-  </si>
-  <si>
     <t>Pradeep</t>
   </si>
   <si>
@@ -302,6 +305,12 @@
     <t>Dileep</t>
   </si>
   <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Month</t>
   </si>
   <si>
@@ -318,6 +327,9 @@
   </si>
   <si>
     <t>Sep-25</t>
+  </si>
+  <si>
+    <t>Oct-25</t>
   </si>
 </sst>
 </file>
@@ -435,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -489,6 +501,15 @@
     </xf>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -520,10 +541,22 @@
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,13 +1281,13 @@
       <c r="A34" s="17">
         <v>33.0</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="9">
-        <v>1000.0</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1324,39 +1357,39 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="20">
+      <c r="A2" s="23">
         <v>1.0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1368,21 +1401,21 @@
       <c r="D2" s="14">
         <v>200.0</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="24">
         <f t="shared" ref="E2:E36" si="1">C2*0.05</f>
         <v>200</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="24">
         <f t="shared" ref="F2:F36" si="2">C2+D2+E2</f>
         <v>4400</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="26" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="14" t="s">
@@ -1390,7 +1423,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20">
+      <c r="A3" s="23">
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1402,21 +1435,21 @@
       <c r="D3" s="14">
         <v>200.0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="24">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="24">
         <f t="shared" si="2"/>
         <v>5870</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="26" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="14" t="s">
@@ -1424,7 +1457,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20">
+      <c r="A4" s="23">
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1436,57 +1469,61 @@
       <c r="D4" s="14">
         <v>200.0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="24">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="24">
         <f t="shared" si="2"/>
         <v>5870</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="23" t="s">
+      <c r="G4" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20">
+      <c r="A5" s="23">
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="9">
-        <v>0.0</v>
+        <v>2000.0</v>
       </c>
       <c r="D5" s="14">
         <v>200.0</v>
       </c>
-      <c r="E5" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="E5" s="24">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F5" s="24">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="27"/>
     </row>
     <row r="6">
-      <c r="A6" s="20">
+      <c r="A6" s="23">
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1498,21 +1535,21 @@
       <c r="D6" s="14">
         <v>200.0</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="24">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="24">
         <f t="shared" si="2"/>
         <v>5870</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="23" t="s">
+      <c r="G6" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="26" t="s">
         <v>36</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -1520,7 +1557,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="20">
+      <c r="A7" s="23">
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1532,49 +1569,53 @@
       <c r="D7" s="14">
         <v>200.0</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="G7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="27"/>
     </row>
     <row r="8">
-      <c r="A8" s="20">
+      <c r="A8" s="23">
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="9">
-        <v>4400.0</v>
+        <v>3400.0</v>
       </c>
       <c r="D8" s="14">
         <v>200.0</v>
       </c>
-      <c r="E8" s="21">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="2"/>
-        <v>4820</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="23" t="s">
+      <c r="E8" s="24">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="F8" s="24">
+        <f t="shared" si="2"/>
+        <v>3770</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="26" t="s">
         <v>86</v>
       </c>
       <c r="J8" s="14" t="s">
@@ -1582,7 +1623,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="20">
+      <c r="A9" s="23">
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1594,21 +1635,21 @@
       <c r="D9" s="14">
         <v>200.0</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="24">
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="24">
         <f t="shared" si="2"/>
         <v>5870</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="23" t="s">
+      <c r="G9" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="26" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -1616,7 +1657,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="20">
+      <c r="A10" s="23">
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1628,23 +1669,27 @@
       <c r="D10" s="14">
         <v>200.0</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="G10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="27"/>
     </row>
     <row r="11">
-      <c r="A11" s="20">
+      <c r="A11" s="23">
         <v>10.0</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1656,23 +1701,27 @@
       <c r="D11" s="14">
         <v>200.0</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="G11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="27"/>
     </row>
     <row r="12">
-      <c r="A12" s="20">
+      <c r="A12" s="23">
         <v>11.0</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -1684,21 +1733,21 @@
       <c r="D12" s="14">
         <v>200.0</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="24">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="24">
         <f t="shared" si="2"/>
         <v>4400</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="23" t="s">
+      <c r="G12" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="26" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="14" t="s">
@@ -1706,7 +1755,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="20">
+      <c r="A13" s="23">
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1718,21 +1767,21 @@
       <c r="D13" s="14">
         <v>200.0</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="24">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="24">
         <f t="shared" si="2"/>
         <v>2300</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="G13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="26" t="s">
         <v>52</v>
       </c>
       <c r="J13" s="14" t="s">
@@ -1740,7 +1789,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="20">
+      <c r="A14" s="23">
         <v>13.0</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -1752,21 +1801,21 @@
       <c r="D14" s="14">
         <v>200.0</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="24">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="24">
         <f t="shared" si="2"/>
         <v>2300</v>
       </c>
-      <c r="G14" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="23" t="s">
+      <c r="G14" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="26" t="s">
         <v>86</v>
       </c>
       <c r="J14" s="14" t="s">
@@ -1774,7 +1823,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="20">
+      <c r="A15" s="23">
         <v>14.0</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -1786,21 +1835,21 @@
       <c r="D15" s="14">
         <v>200.0</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="24">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="24">
         <f t="shared" si="2"/>
         <v>3350</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="25" t="s">
         <v>83</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="26" t="s">
         <v>62</v>
       </c>
       <c r="J15" s="14" t="s">
@@ -1808,7 +1857,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="20">
+      <c r="A16" s="23">
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1820,23 +1869,27 @@
       <c r="D16" s="14">
         <v>200.0</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="G16" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="20">
+      <c r="A17" s="23">
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1848,23 +1901,27 @@
       <c r="D17" s="14">
         <v>200.0</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
+      <c r="G17" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="20">
+      <c r="A18" s="23">
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1876,21 +1933,21 @@
       <c r="D18" s="14">
         <v>200.0</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="24">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="24">
         <f t="shared" si="2"/>
         <v>2300</v>
       </c>
-      <c r="G18" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="23" t="s">
+      <c r="G18" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="26" t="s">
         <v>6</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -1898,7 +1955,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="20">
+      <c r="A19" s="23">
         <v>18.0</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -1910,21 +1967,21 @@
       <c r="D19" s="14">
         <v>200.0</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="24">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="24">
         <f t="shared" si="2"/>
         <v>4400</v>
       </c>
-      <c r="G19" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="23" t="s">
+      <c r="G19" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="26" t="s">
         <v>40</v>
       </c>
       <c r="J19" s="14" t="s">
@@ -1932,7 +1989,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="20">
+      <c r="A20" s="23">
         <v>19.0</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -1944,29 +2001,29 @@
       <c r="D20" s="14">
         <v>200.0</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="24">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="24">
         <f t="shared" si="2"/>
         <v>4400</v>
       </c>
-      <c r="G20" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="23" t="s">
+      <c r="G20" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="20">
+      <c r="A21" s="23">
         <v>20.0</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -1978,21 +2035,21 @@
       <c r="D21" s="14">
         <v>200.0</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="24">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="24">
         <f t="shared" si="2"/>
         <v>4400</v>
       </c>
-      <c r="G21" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="23" t="s">
+      <c r="G21" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="26" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="14" t="s">
@@ -2000,7 +2057,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="20">
+      <c r="A22" s="23">
         <v>21.0</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -2012,23 +2069,27 @@
       <c r="D22" s="14">
         <v>200.0</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G22" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="G22" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="27"/>
     </row>
     <row r="23">
-      <c r="A23" s="20">
+      <c r="A23" s="23">
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2040,23 +2101,27 @@
       <c r="D23" s="14">
         <v>200.0</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="G23" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="27"/>
     </row>
     <row r="24">
-      <c r="A24" s="20">
+      <c r="A24" s="23">
         <v>23.0</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -2068,21 +2133,21 @@
       <c r="D24" s="14">
         <v>200.0</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="24">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="24">
         <f t="shared" si="2"/>
         <v>3350</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="23" t="s">
+      <c r="G24" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="26" t="s">
         <v>52</v>
       </c>
       <c r="J24" s="14" t="s">
@@ -2090,7 +2155,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="20">
+      <c r="A25" s="23">
         <v>24.0</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2102,29 +2167,29 @@
       <c r="D25" s="14">
         <v>200.0</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="24">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="24">
         <f t="shared" si="2"/>
         <v>3350</v>
       </c>
-      <c r="G25" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="23" t="s">
+      <c r="G25" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="26" t="s">
         <v>89</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="20">
+      <c r="A26" s="23">
         <v>25.0</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2136,29 +2201,29 @@
       <c r="D26" s="14">
         <v>200.0</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="24">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="24">
         <f t="shared" si="2"/>
         <v>3350</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="23" t="s">
+      <c r="G26" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="23" t="s">
-        <v>90</v>
+      <c r="I26" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="20">
+      <c r="A27" s="23">
         <v>26.0</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2170,19 +2235,19 @@
       <c r="D27" s="14">
         <v>200.0</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="24">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="24">
         <f t="shared" si="2"/>
         <v>3350</v>
       </c>
-      <c r="G27" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>91</v>
+      <c r="G27" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>85</v>
@@ -2192,7 +2257,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="20">
+      <c r="A28" s="23">
         <v>27.0</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2204,21 +2269,21 @@
       <c r="D28" s="14">
         <v>200.0</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="24">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="24">
         <f t="shared" si="2"/>
         <v>2300</v>
       </c>
-      <c r="G28" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="23" t="s">
+      <c r="G28" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I28" s="26" t="s">
         <v>54</v>
       </c>
       <c r="J28" s="14" t="s">
@@ -2226,7 +2291,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="20">
+      <c r="A29" s="23">
         <v>28.0</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2238,29 +2303,29 @@
       <c r="D29" s="14">
         <v>200.0</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="24">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="24">
         <f t="shared" si="2"/>
         <v>3350</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>92</v>
+      <c r="G29" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="20">
+      <c r="A30" s="23">
         <v>29.0</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2272,29 +2337,29 @@
       <c r="D30" s="14">
         <v>200.0</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="24">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="24">
         <f t="shared" si="2"/>
         <v>3350</v>
       </c>
-      <c r="G30" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="23" t="s">
+      <c r="G30" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="23" t="s">
-        <v>94</v>
+      <c r="I30" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="20">
+      <c r="A31" s="23">
         <v>30.0</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2306,23 +2371,27 @@
       <c r="D31" s="14">
         <v>200.0</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G31" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="G31" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="27"/>
     </row>
     <row r="32">
-      <c r="A32" s="20">
+      <c r="A32" s="23">
         <v>31.0</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2334,23 +2403,27 @@
       <c r="D32" s="14">
         <v>200.0</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
+      <c r="G32" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="27"/>
     </row>
     <row r="33">
-      <c r="A33" s="20">
+      <c r="A33" s="23">
         <v>32.0</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2362,21 +2435,21 @@
       <c r="D33" s="14">
         <v>200.0</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="24">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="24">
         <f t="shared" si="2"/>
         <v>3350</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" s="23" t="s">
+      <c r="G33" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="26" t="s">
         <v>60</v>
       </c>
       <c r="J33" s="14" t="s">
@@ -2384,11 +2457,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="20">
+      <c r="A34" s="23">
         <v>33.0</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>68</v>
+      <c r="B34" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="C34" s="9">
         <v>0.0</v>
@@ -2396,110 +2469,124 @@
       <c r="D34" s="14">
         <v>200.0</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="G34" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="27"/>
     </row>
     <row r="35">
-      <c r="A35" s="20">
+      <c r="A35" s="23">
         <v>34.0</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>70</v>
+      <c r="B35" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C35" s="9">
+        <v>3000.0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E35" s="24">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F35" s="24">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="23">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="9">
         <v>0.0</v>
       </c>
-      <c r="D35" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E35" s="21">
+      <c r="D36" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E36" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F36" s="24">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G35" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="20">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="9">
-        <v>3000.0</v>
-      </c>
-      <c r="D36" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E36" s="21">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F36" s="21">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="23" t="s">
-        <v>52</v>
+      <c r="G36" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="I36" s="14" t="s">
         <v>85</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25">
-        <f t="shared" ref="C37:F37" si="3">SUM(C2:C36)</f>
-        <v>81000</v>
-      </c>
-      <c r="D37" s="26">
+      <c r="A37" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="28">
+        <f t="shared" ref="C37:D37" si="3">SUM(C2:C36)</f>
+        <v>82000</v>
+      </c>
+      <c r="D37" s="29">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="E37" s="25">
-        <f t="shared" si="3"/>
-        <v>4050</v>
-      </c>
-      <c r="F37" s="25">
-        <f t="shared" si="3"/>
-        <v>92050</v>
-      </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
+      <c r="E37" s="28">
+        <f t="shared" ref="E37:F37" si="4">SUM(E2:E35)</f>
+        <v>4100</v>
+      </c>
+      <c r="F37" s="28">
+        <f t="shared" si="4"/>
+        <v>92900</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="$C$1:$C$37"/>
-  <conditionalFormatting sqref="B2:B36">
+  <conditionalFormatting sqref="B2:B36 I5">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
@@ -2515,7 +2602,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J37">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J36">
+      <formula1>"Pending,Status,Transferred,NL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J35 J37">
       <formula1>"Pending,Status,Transferred"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2534,45 +2624,67 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>99</v>
+      <c r="D1" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="31">
-        <v>81000.0</v>
-      </c>
-      <c r="C2" s="32">
-        <v>81000.0</v>
-      </c>
-      <c r="D2" s="32">
-        <f>C2*0.05</f>
-        <v>4050</v>
-      </c>
-      <c r="E2" s="32">
+      <c r="A2" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="34">
+        <v>82000.0</v>
+      </c>
+      <c r="C2" s="35">
+        <v>82000.0</v>
+      </c>
+      <c r="D2" s="36">
+        <f t="shared" ref="D2:D3" si="1">C2*0.05</f>
+        <v>4100</v>
+      </c>
+      <c r="E2" s="36">
         <v>7000.0</v>
       </c>
-      <c r="F2" s="31">
-        <f>C2+D2+E2</f>
-        <v>92050</v>
+      <c r="F2" s="37">
+        <f t="shared" ref="F2:F3" si="2">C2+D2+E2</f>
+        <v>93100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="39">
+        <v>93100.0</v>
+      </c>
+      <c r="C3" s="39">
+        <v>93100.0</v>
+      </c>
+      <c r="D3" s="36">
+        <f t="shared" si="1"/>
+        <v>4655</v>
+      </c>
+      <c r="E3" s="36">
+        <v>7000.0</v>
+      </c>
+      <c r="F3" s="37">
+        <f t="shared" si="2"/>
+        <v>104755</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,17 +5,23 @@
   <sheets>
     <sheet state="visible" name="Contributions" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Loan Ledger" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Balance Sheet" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Actual of Loan Ledger 02" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="dummy" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Loan Ledger 01" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Balance Sheet" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Loan Ledger'!$C$1:$C$37</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Loan Ledger'!$J$1:$J$37</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Actual of Loan Ledger 02'!$J$1:$J$37</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">dummy!$J$1:$J$37</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'Loan Ledger 01'!$J$1:$J$37</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="107">
   <si>
     <t>No.</t>
   </si>
@@ -272,15 +278,33 @@
     <t>Transferred</t>
   </si>
   <si>
+    <t>Laxman</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>Laxman</t>
+    <t>No Loan</t>
+  </si>
+  <si>
+    <t>Sadda</t>
+  </si>
+  <si>
+    <t>Puneeth</t>
   </si>
   <si>
     <t>Naveen P</t>
   </si>
   <si>
+    <t>Dileep</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Settled</t>
+  </si>
+  <si>
     <t>Sundar</t>
   </si>
   <si>
@@ -290,9 +314,6 @@
     <t>Pata</t>
   </si>
   <si>
-    <t>Sadda</t>
-  </si>
-  <si>
     <t>Sudeepa</t>
   </si>
   <si>
@@ -300,15 +321,6 @@
   </si>
   <si>
     <t>Tammi</t>
-  </si>
-  <si>
-    <t>Dileep</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Month</t>
@@ -373,6 +385,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -384,12 +400,8 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +438,12 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -447,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -520,42 +538,86 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="7" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -604,6 +666,18 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1395,28 +1469,28 @@
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9">
-        <v>4000.0</v>
+      <c r="C2" s="24">
+        <v>5000.0</v>
       </c>
       <c r="D2" s="14">
         <v>200.0</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="25">
         <f t="shared" ref="E2:E36" si="1">C2*0.05</f>
-        <v>200</v>
-      </c>
-      <c r="F2" s="24">
-        <f t="shared" ref="F2:F36" si="2">C2+D2+E2</f>
-        <v>4400</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="25">
+        <f t="shared" ref="F2:F37" si="2">C2+D2+E2</f>
+        <v>5450</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>24</v>
+      <c r="I2" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>84</v>
@@ -1429,28 +1503,28 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9">
-        <v>5400.0</v>
+      <c r="C3" s="24">
+        <v>6000.0</v>
       </c>
       <c r="D3" s="14">
         <v>200.0</v>
       </c>
-      <c r="E3" s="24">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="F3" s="24">
-        <f t="shared" si="2"/>
-        <v>5870</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="26" t="s">
+      <c r="E3" s="25">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F3" s="25">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>42</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>84</v>
@@ -1463,28 +1537,28 @@
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9">
-        <v>5400.0</v>
+      <c r="C4" s="24">
+        <v>7000.0</v>
       </c>
       <c r="D4" s="14">
         <v>200.0</v>
       </c>
-      <c r="E4" s="24">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="F4" s="24">
-        <f t="shared" si="2"/>
-        <v>5870</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="26" t="s">
+      <c r="E4" s="25">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F4" s="25">
+        <f t="shared" si="2"/>
+        <v>7550</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>6</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>10</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>84</v>
@@ -1497,30 +1571,32 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9">
-        <v>2000.0</v>
+      <c r="C5" s="24">
+        <v>7000.0</v>
       </c>
       <c r="D5" s="14">
         <v>200.0</v>
       </c>
-      <c r="E5" s="24">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F5" s="24">
-        <f t="shared" si="2"/>
-        <v>2300</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="26" t="s">
+      <c r="E5" s="25">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" si="2"/>
+        <v>7550</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="23">
@@ -1529,28 +1605,28 @@
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
-        <v>5400.0</v>
+      <c r="C6" s="24">
+        <v>7000.0</v>
       </c>
       <c r="D6" s="14">
         <v>200.0</v>
       </c>
-      <c r="E6" s="24">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="F6" s="24">
-        <f t="shared" si="2"/>
-        <v>5870</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>36</v>
+      <c r="E6" s="25">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="2"/>
+        <v>7550</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>84</v>
@@ -1563,30 +1639,32 @@
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="27">
         <v>0.0</v>
       </c>
       <c r="D7" s="14">
         <v>200.0</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="25">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="23">
@@ -1595,28 +1673,28 @@
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9">
-        <v>3400.0</v>
+      <c r="C8" s="24">
+        <v>3000.0</v>
       </c>
       <c r="D8" s="14">
         <v>200.0</v>
       </c>
-      <c r="E8" s="24">
-        <f t="shared" si="1"/>
-        <v>170</v>
-      </c>
-      <c r="F8" s="24">
-        <f t="shared" si="2"/>
-        <v>3770</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>86</v>
+      <c r="E8" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>84</v>
@@ -1629,27 +1707,27 @@
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9">
-        <v>5400.0</v>
+      <c r="C9" s="24">
+        <v>3600.0</v>
       </c>
       <c r="D9" s="14">
         <v>200.0</v>
       </c>
-      <c r="E9" s="24">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="F9" s="24">
-        <f t="shared" si="2"/>
-        <v>5870</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="26" t="s">
+      <c r="E9" s="25">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="2"/>
+        <v>3980</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -1663,30 +1741,32 @@
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="24">
         <v>0.0</v>
       </c>
       <c r="D10" s="14">
         <v>200.0</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="25">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="23">
@@ -1695,30 +1775,32 @@
       <c r="B11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="9">
-        <v>0.0</v>
+      <c r="C11" s="24">
+        <v>3000.0</v>
       </c>
       <c r="D11" s="14">
         <v>200.0</v>
       </c>
-      <c r="E11" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="24">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="E11" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="27"/>
+        <v>20</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="23">
@@ -1727,28 +1809,28 @@
       <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="15">
-        <v>4000.0</v>
+      <c r="C12" s="28">
+        <v>3000.0</v>
       </c>
       <c r="D12" s="14">
         <v>200.0</v>
       </c>
-      <c r="E12" s="24">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F12" s="24">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>6</v>
+      <c r="E12" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>84</v>
@@ -1761,28 +1843,28 @@
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="7">
-        <v>2000.0</v>
+      <c r="C13" s="24">
+        <v>3000.0</v>
       </c>
       <c r="D13" s="14">
         <v>200.0</v>
       </c>
-      <c r="E13" s="24">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F13" s="24">
-        <f t="shared" si="2"/>
-        <v>2300</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="26" t="s">
+      <c r="E13" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>52</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>84</v>
@@ -1795,28 +1877,28 @@
       <c r="B14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7">
-        <v>2000.0</v>
+      <c r="C14" s="24">
+        <v>3000.0</v>
       </c>
       <c r="D14" s="14">
         <v>200.0</v>
       </c>
-      <c r="E14" s="24">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F14" s="24">
-        <f t="shared" si="2"/>
-        <v>2300</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>86</v>
+      <c r="E14" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>84</v>
@@ -1829,27 +1911,27 @@
       <c r="B15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="27">
         <v>3000.0</v>
       </c>
       <c r="D15" s="14">
         <v>200.0</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="25">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="25">
         <f t="shared" si="2"/>
         <v>3350</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>62</v>
       </c>
       <c r="J15" s="14" t="s">
@@ -1863,30 +1945,32 @@
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="27">
         <v>0.0</v>
       </c>
       <c r="D16" s="14">
         <v>200.0</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="25">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="23">
@@ -1895,30 +1979,32 @@
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="27">
         <v>0.0</v>
       </c>
       <c r="D17" s="14">
         <v>200.0</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="25">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="23">
@@ -1927,31 +2013,31 @@
       <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="9">
-        <v>2000.0</v>
+      <c r="C18" s="24">
+        <v>0.0</v>
       </c>
       <c r="D18" s="14">
         <v>200.0</v>
       </c>
-      <c r="E18" s="24">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F18" s="24">
-        <f t="shared" si="2"/>
-        <v>2300</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>6</v>
+      <c r="E18" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -1961,28 +2047,28 @@
       <c r="B19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="9">
-        <v>4000.0</v>
+      <c r="C19" s="24">
+        <v>3000.0</v>
       </c>
       <c r="D19" s="14">
         <v>200.0</v>
       </c>
-      <c r="E19" s="24">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F19" s="24">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="26" t="s">
+      <c r="E19" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>40</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>84</v>
@@ -1995,28 +2081,28 @@
       <c r="B20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="9">
-        <v>4000.0</v>
+      <c r="C20" s="24">
+        <v>3000.0</v>
       </c>
       <c r="D20" s="14">
         <v>200.0</v>
       </c>
-      <c r="E20" s="24">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F20" s="24">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="26" t="s">
+      <c r="E20" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>84</v>
@@ -2029,28 +2115,28 @@
       <c r="B21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="9">
-        <v>4000.0</v>
+      <c r="C21" s="24">
+        <v>3000.0</v>
       </c>
       <c r="D21" s="14">
         <v>200.0</v>
       </c>
-      <c r="E21" s="24">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F21" s="24">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>30</v>
+      <c r="E21" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>84</v>
@@ -2063,30 +2149,32 @@
       <c r="B22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="9">
-        <v>0.0</v>
+      <c r="C22" s="24">
+        <v>3000.0</v>
       </c>
       <c r="D22" s="14">
         <v>200.0</v>
       </c>
-      <c r="E22" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="24">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G22" s="25" t="s">
+      <c r="E22" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F22" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J22" s="27"/>
+        <v>64</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="23">
@@ -2095,60 +2183,62 @@
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="27">
         <v>0.0</v>
       </c>
       <c r="D23" s="14">
         <v>200.0</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="25">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="23">
         <v>23.0</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="9">
-        <v>3000.0</v>
+        <v>91</v>
+      </c>
+      <c r="C24" s="24">
+        <v>2500.0</v>
       </c>
       <c r="D24" s="14">
         <v>200.0</v>
       </c>
-      <c r="E24" s="24">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F24" s="24">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="26" t="s">
+      <c r="E24" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F24" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>52</v>
+      <c r="I24" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>84</v>
@@ -2161,28 +2251,28 @@
       <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="9">
-        <v>3000.0</v>
+      <c r="C25" s="24">
+        <v>2500.0</v>
       </c>
       <c r="D25" s="14">
         <v>200.0</v>
       </c>
-      <c r="E25" s="24">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F25" s="24">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>90</v>
+      <c r="E25" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F25" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>84</v>
@@ -2195,28 +2285,28 @@
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="9">
-        <v>3000.0</v>
+      <c r="C26" s="24">
+        <v>2500.0</v>
       </c>
       <c r="D26" s="14">
         <v>200.0</v>
       </c>
-      <c r="E26" s="24">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F26" s="24">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="26" t="s">
+      <c r="E26" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>4</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>91</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>84</v>
@@ -2229,28 +2319,28 @@
       <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="9">
-        <v>3000.0</v>
+      <c r="C27" s="24">
+        <v>2500.0</v>
       </c>
       <c r="D27" s="14">
         <v>200.0</v>
       </c>
-      <c r="E27" s="24">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F27" s="24">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>92</v>
+      <c r="E27" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F27" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>84</v>
@@ -2263,27 +2353,27 @@
       <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="9">
-        <v>2000.0</v>
+      <c r="C28" s="24">
+        <v>2500.0</v>
       </c>
       <c r="D28" s="14">
         <v>200.0</v>
       </c>
-      <c r="E28" s="24">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F28" s="24">
-        <f t="shared" si="2"/>
-        <v>2300</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="I28" s="26" t="s">
+      <c r="E28" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F28" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="14" t="s">
         <v>54</v>
       </c>
       <c r="J28" s="14" t="s">
@@ -2297,28 +2387,28 @@
       <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="9">
-        <v>3000.0</v>
+      <c r="C29" s="24">
+        <v>2500.0</v>
       </c>
       <c r="D29" s="14">
         <v>200.0</v>
       </c>
-      <c r="E29" s="24">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F29" s="24">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>94</v>
+      <c r="E29" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F29" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>84</v>
@@ -2331,28 +2421,28 @@
       <c r="B30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="9">
-        <v>3000.0</v>
+      <c r="C30" s="24">
+        <v>2500.0</v>
       </c>
       <c r="D30" s="14">
         <v>200.0</v>
       </c>
-      <c r="E30" s="24">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F30" s="24">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="26" t="s">
+      <c r="E30" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F30" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>95</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>84</v>
@@ -2365,30 +2455,32 @@
       <c r="B31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="9">
-        <v>0.0</v>
+      <c r="C31" s="24">
+        <v>2500.0</v>
       </c>
       <c r="D31" s="14">
         <v>200.0</v>
       </c>
-      <c r="E31" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="24">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G31" s="25" t="s">
+      <c r="E31" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F31" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G31" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J31" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="23">
@@ -2397,30 +2489,32 @@
       <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="9">
-        <v>0.0</v>
+      <c r="C32" s="24">
+        <v>2500.0</v>
       </c>
       <c r="D32" s="14">
         <v>200.0</v>
       </c>
-      <c r="E32" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="24">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G32" s="25" t="s">
+      <c r="E32" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F32" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="23">
@@ -2429,28 +2523,28 @@
       <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="9">
-        <v>3000.0</v>
+      <c r="C33" s="24">
+        <v>2500.0</v>
       </c>
       <c r="D33" s="14">
         <v>200.0</v>
       </c>
-      <c r="E33" s="24">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F33" s="24">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>60</v>
+      <c r="E33" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>84</v>
@@ -2463,30 +2557,32 @@
       <c r="B34" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="27">
         <v>0.0</v>
       </c>
       <c r="D34" s="14">
         <v>200.0</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="25">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J34" s="27"/>
+        <v>86</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="23">
@@ -2495,28 +2591,28 @@
       <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="9">
-        <v>3000.0</v>
+      <c r="C35" s="24">
+        <v>2500.0</v>
       </c>
       <c r="D35" s="14">
         <v>200.0</v>
       </c>
-      <c r="E35" s="24">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F35" s="24">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="26" t="s">
+      <c r="E35" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F35" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="J35" s="14" t="s">
         <v>84</v>
@@ -2529,63 +2625,1361 @@
       <c r="B36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="27">
         <v>0.0</v>
       </c>
       <c r="D36" s="14">
         <v>200.0</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="25">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="28">
+        <v>92</v>
+      </c>
+      <c r="C37" s="29">
         <f t="shared" ref="C37:D37" si="3">SUM(C2:C36)</f>
-        <v>82000</v>
-      </c>
-      <c r="D37" s="29">
+        <v>93100</v>
+      </c>
+      <c r="D37" s="30">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="E37" s="28">
-        <f t="shared" ref="E37:F37" si="4">SUM(E2:E35)</f>
-        <v>4100</v>
-      </c>
-      <c r="F37" s="28">
-        <f t="shared" si="4"/>
-        <v>92900</v>
-      </c>
-      <c r="G37" s="30"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
+      <c r="E37" s="29">
+        <f>SUM(E2:E35)</f>
+        <v>4655</v>
+      </c>
+      <c r="F37" s="29">
+        <f t="shared" si="2"/>
+        <v>104755</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="$C$1:$C$37"/>
+  <autoFilter ref="$J$1:$J$37"/>
+  <conditionalFormatting sqref="B2:B36 I29 I32">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C36">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C37">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(C1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J37">
+      <formula1>"Pending,Status,Transferred,Settled,No Loan"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.38"/>
+    <col customWidth="1" min="2" max="2" width="12.25"/>
+    <col customWidth="1" min="3" max="3" width="10.13"/>
+    <col customWidth="1" min="4" max="4" width="5.63"/>
+    <col customWidth="1" min="5" max="5" width="9.13"/>
+    <col customWidth="1" min="6" max="6" width="10.13"/>
+    <col customWidth="1" min="7" max="7" width="10.25"/>
+    <col customWidth="1" min="8" max="8" width="8.38"/>
+    <col customWidth="1" min="9" max="9" width="6.88"/>
+    <col customWidth="1" min="10" max="10" width="14.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="24">
+        <v>5000.0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E2" s="25">
+        <f t="shared" ref="E2:E36" si="1">C2*0.05</f>
+        <v>250</v>
+      </c>
+      <c r="F2" s="25">
+        <f t="shared" ref="F2:F37" si="2">C2+D2+E2</f>
+        <v>5450</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="24">
+        <v>6000.0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E3" s="25">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F3" s="25">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="24">
+        <v>7000.0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F4" s="25">
+        <f t="shared" si="2"/>
+        <v>7550</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="23">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="24">
+        <v>7000.0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E5" s="25">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" si="2"/>
+        <v>7550</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="24">
+        <v>10000.0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="2"/>
+        <v>10700</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E7" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E8" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="24">
+        <v>3000.0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="28">
+        <v>3000.0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E12" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="24">
+        <v>3000.0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E13" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="23">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="24">
+        <v>3000.0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E14" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="23">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="27">
+        <v>3000.0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E15" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="23">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E16" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="23">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="23">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E18" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="23">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="24">
+        <v>6000.0</v>
+      </c>
+      <c r="D19" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E19" s="25">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="23">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="24">
+        <v>4000.0</v>
+      </c>
+      <c r="D20" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E20" s="25">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="23">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="24">
+        <v>3000.0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E21" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="23">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="24">
+        <v>3000.0</v>
+      </c>
+      <c r="D22" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E22" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F22" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="23">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E23" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="23">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="24">
+        <v>2500.0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E24" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F24" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="23">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="24">
+        <v>2500.0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E25" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F25" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="23">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="24">
+        <v>2500.0</v>
+      </c>
+      <c r="D26" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E26" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="23">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="24">
+        <v>2500.0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E27" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F27" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="23">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="24">
+        <v>2500.0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F28" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="23">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="24">
+        <v>2500.0</v>
+      </c>
+      <c r="D29" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F29" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="23">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="24">
+        <v>2500.0</v>
+      </c>
+      <c r="D30" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F30" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="24">
+        <v>2500.0</v>
+      </c>
+      <c r="D31" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F31" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="23">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="24">
+        <v>2500.0</v>
+      </c>
+      <c r="D32" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F32" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="23">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="24">
+        <v>2500.0</v>
+      </c>
+      <c r="D33" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="23">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="23">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="24">
+        <v>2500.0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="F35" s="25">
+        <f t="shared" si="2"/>
+        <v>2825</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="23">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="29">
+        <f t="shared" ref="C37:D37" si="3">SUM(C2:C36)</f>
+        <v>93500</v>
+      </c>
+      <c r="D37" s="30">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
+      <c r="E37" s="29">
+        <f>SUM(E2:E35)</f>
+        <v>4675</v>
+      </c>
+      <c r="F37" s="29">
+        <f t="shared" si="2"/>
+        <v>105175</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="$J$1:$J$37"/>
   <conditionalFormatting sqref="B2:B36 I5">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B2))&gt;0</formula>
@@ -2602,18 +3996,2611 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J36">
-      <formula1>"Pending,Status,Transferred,NL"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J35 J37">
-      <formula1>"Pending,Status,Transferred"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J37">
+      <formula1>"Pending,Status,Transferred,Settled,No Loan"</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.38"/>
+    <col customWidth="1" min="2" max="2" width="12.25"/>
+    <col customWidth="1" min="3" max="3" width="10.13"/>
+    <col customWidth="1" min="4" max="4" width="5.63"/>
+    <col customWidth="1" min="5" max="5" width="9.13"/>
+    <col customWidth="1" min="6" max="6" width="10.13"/>
+    <col customWidth="1" min="7" max="7" width="10.25"/>
+    <col customWidth="1" min="8" max="8" width="8.38"/>
+    <col customWidth="1" min="9" max="9" width="6.88"/>
+    <col customWidth="1" min="10" max="10" width="14.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="24">
+        <v>7000.0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E2" s="25">
+        <f t="shared" ref="E2:E36" si="1">C2*0.05</f>
+        <v>350</v>
+      </c>
+      <c r="F2" s="25">
+        <f t="shared" ref="F2:F37" si="2">C2+D2+E2</f>
+        <v>7550</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="24">
+        <v>7000.0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E3" s="25">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F3" s="25">
+        <f t="shared" si="2"/>
+        <v>7550</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="24">
+        <v>7000.0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F4" s="25">
+        <f t="shared" si="2"/>
+        <v>7550</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="23">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="24">
+        <v>7000.0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E5" s="25">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" si="2"/>
+        <v>7550</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="24">
+        <v>7000.0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="2"/>
+        <v>7550</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E7" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E8" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="24">
+        <v>4000.0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="24">
+        <v>4000.0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E12" s="25">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="24">
+        <v>4000.0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E13" s="25">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="23">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="24">
+        <v>4000.0</v>
+      </c>
+      <c r="D14" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E14" s="25">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="23">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="24">
+        <v>4000.0</v>
+      </c>
+      <c r="D15" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E15" s="25">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="23">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E16" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="23">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="23">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E18" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="23">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="24">
+        <v>4000.0</v>
+      </c>
+      <c r="D19" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E19" s="25">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="23">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="24">
+        <v>4000.0</v>
+      </c>
+      <c r="D20" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E20" s="25">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="23">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="24">
+        <v>4000.0</v>
+      </c>
+      <c r="D21" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E21" s="25">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="23">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="24">
+        <v>4000.0</v>
+      </c>
+      <c r="D22" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E22" s="25">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F22" s="25">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="23">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E23" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="23">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="24">
+        <v>3000.0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E24" s="25">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F24" s="25">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="23">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="24">
+        <v>3500.0</v>
+      </c>
+      <c r="D25" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E25" s="25">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="F25" s="25">
+        <f t="shared" si="2"/>
+        <v>3875</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="23">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="24">
+        <v>3500.0</v>
+      </c>
+      <c r="D26" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E26" s="25">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" si="2"/>
+        <v>3875</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="23">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="24">
+        <v>3500.0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E27" s="25">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="F27" s="25">
+        <f t="shared" si="2"/>
+        <v>3875</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="23">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="24">
+        <v>3500.0</v>
+      </c>
+      <c r="D28" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E28" s="25">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="F28" s="25">
+        <f t="shared" si="2"/>
+        <v>3875</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="23">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="24">
+        <v>3500.0</v>
+      </c>
+      <c r="D29" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="F29" s="25">
+        <f t="shared" si="2"/>
+        <v>3875</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="23">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="24">
+        <v>3500.0</v>
+      </c>
+      <c r="D30" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="F30" s="25">
+        <f t="shared" si="2"/>
+        <v>3875</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="23">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="24">
+        <v>3500.0</v>
+      </c>
+      <c r="D31" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="F31" s="25">
+        <f t="shared" si="2"/>
+        <v>3875</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="23">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="24">
+        <v>3500.0</v>
+      </c>
+      <c r="D32" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="F32" s="25">
+        <f t="shared" si="2"/>
+        <v>3875</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="23">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="24">
+        <v>3500.0</v>
+      </c>
+      <c r="D33" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" si="2"/>
+        <v>3875</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="23">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="23">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="24">
+        <v>3500.0</v>
+      </c>
+      <c r="D35" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="F35" s="25">
+        <f t="shared" si="2"/>
+        <v>3875</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="23">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="14">
+        <v>200.0</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="25">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="29">
+        <f t="shared" ref="C37:D37" si="3">SUM(C2:C36)</f>
+        <v>109000</v>
+      </c>
+      <c r="D37" s="30">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
+      <c r="E37" s="29">
+        <f>SUM(E2:E35)</f>
+        <v>5450</v>
+      </c>
+      <c r="F37" s="29">
+        <f t="shared" si="2"/>
+        <v>121450</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="$J$1:$J$37"/>
+  <conditionalFormatting sqref="B2:B36 I5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C36">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C37">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(C1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J37">
+      <formula1>"Pending,Status,Transferred,Settled,No Loan"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.38"/>
+    <col customWidth="1" min="2" max="2" width="12.25"/>
+    <col customWidth="1" min="3" max="3" width="10.13"/>
+    <col customWidth="1" min="4" max="4" width="5.63"/>
+    <col customWidth="1" min="5" max="5" width="9.13"/>
+    <col customWidth="1" min="6" max="6" width="10.13"/>
+    <col customWidth="1" min="7" max="7" width="10.25"/>
+    <col customWidth="1" min="8" max="8" width="8.38"/>
+    <col customWidth="1" min="9" max="9" width="6.88"/>
+    <col customWidth="1" min="10" max="10" width="14.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="38">
+        <v>7000.0</v>
+      </c>
+      <c r="D2" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E2" s="40">
+        <f t="shared" ref="E2:E36" si="1">C2*0.05</f>
+        <v>350</v>
+      </c>
+      <c r="F2" s="40">
+        <f t="shared" ref="F2:F37" si="2">C2+D2+E2</f>
+        <v>7550</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="38">
+        <v>5400.0</v>
+      </c>
+      <c r="D3" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E3" s="40">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="F3" s="40">
+        <f t="shared" si="2"/>
+        <v>5870</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="38">
+        <v>5400.0</v>
+      </c>
+      <c r="D4" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E4" s="40">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="F4" s="40">
+        <f t="shared" si="2"/>
+        <v>5870</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="38">
+        <v>7000.0</v>
+      </c>
+      <c r="D5" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E5" s="40">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F5" s="40">
+        <f t="shared" si="2"/>
+        <v>7550</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="36">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="38">
+        <v>5400.0</v>
+      </c>
+      <c r="D6" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E6" s="40">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="F6" s="40">
+        <f t="shared" si="2"/>
+        <v>5870</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="36">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E7" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="40">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="36">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="38">
+        <v>400.0</v>
+      </c>
+      <c r="D8" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E8" s="40">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="40">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="36">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="38">
+        <v>400.0</v>
+      </c>
+      <c r="D9" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E9" s="40">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F9" s="40">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="36">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="43">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E10" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="40">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="36">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E11" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="40">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="36">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="44">
+        <v>4000.0</v>
+      </c>
+      <c r="D12" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E12" s="40">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F12" s="40">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="36">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="38">
+        <v>2000.0</v>
+      </c>
+      <c r="D13" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E13" s="40">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F13" s="40">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="36">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="38">
+        <v>2000.0</v>
+      </c>
+      <c r="D14" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E14" s="40">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F14" s="40">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="36">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="38">
+        <v>3000.0</v>
+      </c>
+      <c r="D15" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E15" s="40">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F15" s="40">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="36">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E16" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="40">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="36">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E17" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="40">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="36">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="38">
+        <v>2000.0</v>
+      </c>
+      <c r="D18" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E18" s="40">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F18" s="40">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="36">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="38">
+        <v>4000.0</v>
+      </c>
+      <c r="D19" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E19" s="40">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F19" s="40">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="36">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="38">
+        <v>4000.0</v>
+      </c>
+      <c r="D20" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E20" s="40">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F20" s="40">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="36">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="38">
+        <v>4000.0</v>
+      </c>
+      <c r="D21" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E21" s="40">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F21" s="40">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="36">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E22" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="40">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="36">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E23" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="40">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="36">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="38">
+        <v>3000.0</v>
+      </c>
+      <c r="D24" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E24" s="40">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F24" s="40">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="36">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="38">
+        <v>3000.0</v>
+      </c>
+      <c r="D25" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E25" s="40">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F25" s="40">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="36">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="38">
+        <v>3000.0</v>
+      </c>
+      <c r="D26" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E26" s="40">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F26" s="40">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="36">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="38">
+        <v>3000.0</v>
+      </c>
+      <c r="D27" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E27" s="40">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="36">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="38">
+        <v>2000.0</v>
+      </c>
+      <c r="D28" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E28" s="40">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F28" s="40">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="36">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="38">
+        <v>3000.0</v>
+      </c>
+      <c r="D29" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E29" s="40">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F29" s="40">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="36">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="38">
+        <v>3000.0</v>
+      </c>
+      <c r="D30" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E30" s="40">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F30" s="40">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="36">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E31" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="36">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E32" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="36">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="38">
+        <v>3000.0</v>
+      </c>
+      <c r="D33" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E33" s="40">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="36">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E34" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="40">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="36">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="38">
+        <v>3000.0</v>
+      </c>
+      <c r="D35" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E35" s="40">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="36">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="E36" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="45">
+        <f t="shared" ref="C37:D37" si="3">SUM(C2:C36)</f>
+        <v>82000</v>
+      </c>
+      <c r="D37" s="46">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
+      <c r="E37" s="45">
+        <f>SUM(E2:E35)</f>
+        <v>4100</v>
+      </c>
+      <c r="F37" s="45">
+        <f t="shared" si="2"/>
+        <v>93100</v>
+      </c>
+      <c r="G37" s="47"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="$J$1:$J$37"/>
+  <conditionalFormatting sqref="B2:B36 I5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(B2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C36">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(C2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C37">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(C1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J37">
+      <formula1>"Pending,Status,Transferred,Settled"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2624,65 +6611,65 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="50" t="s">
         <v>102</v>
       </c>
+      <c r="E1" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="34">
+      <c r="A2" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="52">
         <v>82000.0</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="53">
         <v>82000.0</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="54">
         <f t="shared" ref="D2:D3" si="1">C2*0.05</f>
         <v>4100</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="54">
         <v>7000.0</v>
       </c>
-      <c r="F2" s="37">
+      <c r="F2" s="55">
         <f t="shared" ref="F2:F3" si="2">C2+D2+E2</f>
         <v>93100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="39">
+      <c r="A3" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="57">
         <v>93100.0</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="57">
         <v>93100.0</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="54">
         <f t="shared" si="1"/>
         <v>4655</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="54">
         <v>7000.0</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="55">
         <f t="shared" si="2"/>
         <v>104755</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,23 +5,21 @@
   <sheets>
     <sheet state="visible" name="Contributions" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Loan Ledger" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Actual of Loan Ledger 02" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="dummy" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Loan Ledger 01" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Balance Sheet" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Loan Ledger 02" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Loan Ledger 01" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Balance Sheet" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Loan Ledger'!$J$1:$J$37</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Actual of Loan Ledger 02'!$J$1:$J$37</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">dummy!$J$1:$J$37</definedName>
-    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'Loan Ledger 01'!$J$1:$J$37</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Loan Ledger 02'!$J$1:$J$37</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Loan Ledger 01'!$J$1:$J$37</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="108">
   <si>
     <t>No.</t>
   </si>
@@ -275,36 +273,36 @@
     <t>15-Oct-2025</t>
   </si>
   <si>
+    <t>Pending</t>
+  </si>
+  <si>
     <t>Transferred</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Settled</t>
+  </si>
+  <si>
     <t>Laxman</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>No Loan</t>
   </si>
   <si>
+    <t>Naveen P</t>
+  </si>
+  <si>
+    <t>Dileep</t>
+  </si>
+  <si>
     <t>Sadda</t>
   </si>
   <si>
-    <t>Puneeth</t>
-  </si>
-  <si>
-    <t>Naveen P</t>
-  </si>
-  <si>
-    <t>Dileep</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Settled</t>
-  </si>
-  <si>
     <t>Sundar</t>
   </si>
   <si>
@@ -342,6 +340,9 @@
   </si>
   <si>
     <t>Oct-25</t>
+  </si>
+  <si>
+    <t>Nov-25</t>
   </si>
 </sst>
 </file>
@@ -351,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$₹]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -385,6 +386,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -401,7 +406,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,12 +445,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -461,11 +472,39 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -545,86 +584,102 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="5" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="8" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="8" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="4" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="7" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="8" fontId="4" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="8" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="8" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="8" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="7" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="8" fontId="8" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="8" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -653,7 +708,76 @@
       </fill>
       <border/>
     </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
   </dxfs>
+  <tableStyles count="10">
+    <tableStyle count="2" pivot="0" name="Loan Ledger-style">
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Loan Ledger-style 2">
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Loan Ledger-style 3">
+      <tableStyleElement dxfId="5" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Loan Ledger-style 4">
+      <tableStyleElement dxfId="5" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Loan Ledger-style 5">
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Loan Ledger-style 6">
+      <tableStyleElement dxfId="5" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Loan Ledger-style 7">
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Loan Ledger-style 8">
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Loan Ledger-style 9">
+      <tableStyleElement dxfId="5" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Loan Ledger-style 10">
+      <tableStyleElement dxfId="5" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -677,8 +801,104 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="H2:I2" displayName="Table_1" name="Table_1" id="1">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Loan Ledger-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="H36:I36" displayName="Table_10" name="Table_10" id="10">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Loan Ledger-style 10" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="H3:I4" displayName="Table_2" name="Table_2" id="2">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Loan Ledger-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="H12:I12" displayName="Table_3" name="Table_3" id="3">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Loan Ledger-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="H13:I13" displayName="Table_4" name="Table_4" id="4">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Loan Ledger-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="H20:I20" displayName="Table_5" name="Table_5" id="5">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Loan Ledger-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="H21:I21" displayName="Table_6" name="Table_6" id="6">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Loan Ledger-style 6" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="H22:I22" displayName="Table_7" name="Table_7" id="7">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Loan Ledger-style 7" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="H27:I27" displayName="Table_8" name="Table_8" id="8">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Loan Ledger-style 8" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="H35:I35" displayName="Table_9" name="Table_9" id="9">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Loan Ledger-style 9" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1470,27 +1690,27 @@
         <v>4</v>
       </c>
       <c r="C2" s="24">
-        <v>5000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D2" s="14">
         <v>200.0</v>
       </c>
       <c r="E2" s="25">
-        <f t="shared" ref="E2:E36" si="1">C2*0.05</f>
-        <v>250</v>
+        <f>C2*0.05</f>
+        <v>150</v>
       </c>
       <c r="F2" s="25">
-        <f t="shared" ref="F2:F37" si="2">C2+D2+E2</f>
-        <v>5450</v>
+        <f t="shared" ref="F2:F37" si="1">C2+D2+E2</f>
+        <v>3350</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>6</v>
+      <c r="H2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>84</v>
@@ -1504,30 +1724,30 @@
         <v>6</v>
       </c>
       <c r="C3" s="24">
-        <v>6000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="D3" s="14">
         <v>200.0</v>
       </c>
       <c r="E3" s="25">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f>C3*0.12</f>
+        <v>1200</v>
       </c>
       <c r="F3" s="25">
-        <f t="shared" si="2"/>
-        <v>6500</v>
+        <f t="shared" si="1"/>
+        <v>11400</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -1538,30 +1758,30 @@
         <v>8</v>
       </c>
       <c r="C4" s="24">
-        <v>7000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="D4" s="14">
         <v>200.0</v>
       </c>
       <c r="E4" s="25">
-        <f t="shared" si="1"/>
-        <v>350</v>
+        <f t="shared" ref="E4:E18" si="2">C4*0.05</f>
+        <v>300</v>
       </c>
       <c r="F4" s="25">
-        <f t="shared" si="2"/>
-        <v>7550</v>
+        <f t="shared" si="1"/>
+        <v>6500</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>6</v>
+      <c r="H4" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>86</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1572,33 +1792,33 @@
         <v>10</v>
       </c>
       <c r="C5" s="24">
-        <v>7000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D5" s="14">
         <v>200.0</v>
       </c>
       <c r="E5" s="25">
-        <f t="shared" si="1"/>
-        <v>350</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="F5" s="25">
-        <f t="shared" si="2"/>
-        <v>7550</v>
+        <f t="shared" si="1"/>
+        <v>4400</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" hidden="1">
       <c r="A6" s="23">
         <v>5.0</v>
       </c>
@@ -1606,51 +1826,51 @@
         <v>12</v>
       </c>
       <c r="C6" s="24">
-        <v>7000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6" s="14">
         <v>200.0</v>
       </c>
       <c r="E6" s="25">
-        <f t="shared" si="1"/>
-        <v>350</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F6" s="25">
-        <f t="shared" si="2"/>
-        <v>7550</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" hidden="1">
       <c r="A7" s="23">
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="29">
         <v>0.0</v>
       </c>
       <c r="D7" s="14">
         <v>200.0</v>
       </c>
       <c r="E7" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G7" s="26" t="s">
@@ -1663,10 +1883,10 @@
         <v>86</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" hidden="1">
       <c r="A8" s="23">
         <v>7.0</v>
       </c>
@@ -1674,18 +1894,18 @@
         <v>16</v>
       </c>
       <c r="C8" s="24">
-        <v>3000.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" s="14">
         <v>200.0</v>
       </c>
       <c r="E8" s="25">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F8" s="25">
-        <f t="shared" si="2"/>
-        <v>3350</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>83</v>
@@ -1697,7 +1917,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1708,18 +1928,18 @@
         <v>18</v>
       </c>
       <c r="C9" s="24">
-        <v>3600.0</v>
+        <v>2755.0</v>
       </c>
       <c r="D9" s="14">
         <v>200.0</v>
       </c>
       <c r="E9" s="25">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="2"/>
+        <v>137.75</v>
       </c>
       <c r="F9" s="25">
-        <f t="shared" si="2"/>
-        <v>3980</v>
+        <f t="shared" si="1"/>
+        <v>3092.75</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>83</v>
@@ -1731,10 +1951,10 @@
         <v>6</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" hidden="1">
       <c r="A10" s="23">
         <v>9.0</v>
       </c>
@@ -1748,11 +1968,11 @@
         <v>200.0</v>
       </c>
       <c r="E10" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F10" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G10" s="26" t="s">
@@ -1765,7 +1985,7 @@
         <v>86</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -1782,11 +2002,11 @@
         <v>200.0</v>
       </c>
       <c r="E11" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="F11" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3350</v>
       </c>
       <c r="G11" s="26" t="s">
@@ -1799,7 +2019,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -1809,31 +2029,31 @@
       <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="28">
-        <v>3000.0</v>
+      <c r="C12" s="30">
+        <v>4000.0</v>
       </c>
       <c r="D12" s="14">
         <v>200.0</v>
       </c>
       <c r="E12" s="25">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="F12" s="25">
-        <f t="shared" si="2"/>
-        <v>3350</v>
+        <f t="shared" si="1"/>
+        <v>4400</v>
       </c>
       <c r="G12" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>89</v>
+      <c r="H12" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -1850,24 +2070,24 @@
         <v>200.0</v>
       </c>
       <c r="E13" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="F13" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3350</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>85</v>
+      <c r="I13" s="31" t="s">
+        <v>18</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -1884,11 +2104,11 @@
         <v>200.0</v>
       </c>
       <c r="E14" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="F14" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3350</v>
       </c>
       <c r="G14" s="26" t="s">
@@ -1898,10 +2118,10 @@
         <v>90</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -1911,18 +2131,18 @@
       <c r="B15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="24">
         <v>3000.0</v>
       </c>
       <c r="D15" s="14">
         <v>200.0</v>
       </c>
       <c r="E15" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="F15" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3350</v>
       </c>
       <c r="G15" s="26" t="s">
@@ -1935,7 +2155,7 @@
         <v>62</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -1945,19 +2165,19 @@
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="27">
-        <v>0.0</v>
+      <c r="C16" s="24">
+        <v>3000.0</v>
       </c>
       <c r="D16" s="14">
         <v>200.0</v>
       </c>
       <c r="E16" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
       <c r="F16" s="25">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>3350</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>83</v>
@@ -1969,28 +2189,28 @@
         <v>86</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" hidden="1">
       <c r="A17" s="23">
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="24">
         <v>0.0</v>
       </c>
       <c r="D17" s="14">
         <v>200.0</v>
       </c>
       <c r="E17" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F17" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G17" s="26" t="s">
@@ -2003,10 +2223,10 @@
         <v>86</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" hidden="1">
       <c r="A18" s="23">
         <v>17.0</v>
       </c>
@@ -2020,11 +2240,11 @@
         <v>200.0</v>
       </c>
       <c r="E18" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G18" s="26" t="s">
@@ -2037,7 +2257,7 @@
         <v>86</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -2048,30 +2268,30 @@
         <v>38</v>
       </c>
       <c r="C19" s="24">
-        <v>3000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D19" s="14">
         <v>200.0</v>
       </c>
       <c r="E19" s="25">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f>C19*0.08</f>
+        <v>400</v>
       </c>
       <c r="F19" s="25">
-        <f t="shared" si="2"/>
-        <v>3350</v>
+        <f t="shared" si="1"/>
+        <v>5600</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -2082,30 +2302,30 @@
         <v>40</v>
       </c>
       <c r="C20" s="24">
-        <v>3000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="D20" s="14">
         <v>200.0</v>
       </c>
       <c r="E20" s="25">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f>C20*0.12</f>
+        <v>1200</v>
       </c>
       <c r="F20" s="25">
-        <f t="shared" si="2"/>
-        <v>3350</v>
+        <f t="shared" si="1"/>
+        <v>11400</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="14" t="s">
+      <c r="H20" s="27" t="s">
         <v>68</v>
       </c>
+      <c r="I20" s="27" t="s">
+        <v>4</v>
+      </c>
       <c r="J20" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -2122,24 +2342,24 @@
         <v>200.0</v>
       </c>
       <c r="E21" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E21:E23" si="3">C21*0.05</f>
         <v>150</v>
       </c>
       <c r="F21" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3350</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="J21" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -2156,45 +2376,45 @@
         <v>200.0</v>
       </c>
       <c r="E22" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="F22" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3350</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="27" t="s">
         <v>64</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" hidden="1">
       <c r="A23" s="23">
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="29">
         <v>0.0</v>
       </c>
       <c r="D23" s="14">
         <v>200.0</v>
       </c>
       <c r="E23" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F23" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G23" s="26" t="s">
@@ -2207,7 +2427,7 @@
         <v>86</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -2218,18 +2438,18 @@
         <v>91</v>
       </c>
       <c r="C24" s="24">
-        <v>2500.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D24" s="14">
         <v>200.0</v>
       </c>
       <c r="E24" s="25">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f>C24*0.11</f>
+        <v>550</v>
       </c>
       <c r="F24" s="25">
-        <f t="shared" si="2"/>
-        <v>2825</v>
+        <f t="shared" si="1"/>
+        <v>5750</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>83</v>
@@ -2241,7 +2461,7 @@
         <v>58</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -2252,18 +2472,18 @@
         <v>50</v>
       </c>
       <c r="C25" s="24">
-        <v>2500.0</v>
+        <v>5000.0</v>
       </c>
       <c r="D25" s="14">
         <v>200.0</v>
       </c>
       <c r="E25" s="25">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f>C25*0.13</f>
+        <v>650</v>
       </c>
       <c r="F25" s="25">
-        <f t="shared" si="2"/>
-        <v>2825</v>
+        <f t="shared" si="1"/>
+        <v>5850</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>83</v>
@@ -2275,7 +2495,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -2286,30 +2506,30 @@
         <v>52</v>
       </c>
       <c r="C26" s="24">
-        <v>2500.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D26" s="14">
         <v>200.0</v>
       </c>
       <c r="E26" s="25">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f>C26*0.06</f>
+        <v>240</v>
       </c>
       <c r="F26" s="25">
-        <f t="shared" si="2"/>
-        <v>2825</v>
+        <f t="shared" si="1"/>
+        <v>4440</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>83</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -2326,27 +2546,27 @@
         <v>200.0</v>
       </c>
       <c r="E27" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E27:E32" si="4">C27*0.05</f>
         <v>125</v>
       </c>
       <c r="F27" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2825</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="14" t="s">
+      <c r="H27" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="27" t="s">
         <v>62</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" hidden="1">
       <c r="A28" s="23">
         <v>27.0</v>
       </c>
@@ -2354,18 +2574,18 @@
         <v>56</v>
       </c>
       <c r="C28" s="24">
-        <v>2500.0</v>
+        <v>0.0</v>
       </c>
       <c r="D28" s="14">
         <v>200.0</v>
       </c>
       <c r="E28" s="25">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F28" s="25">
-        <f t="shared" si="2"/>
-        <v>2825</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>83</v>
@@ -2377,7 +2597,7 @@
         <v>54</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -2388,18 +2608,18 @@
         <v>58</v>
       </c>
       <c r="C29" s="24">
-        <v>2500.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D29" s="14">
         <v>200.0</v>
       </c>
       <c r="E29" s="25">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f t="shared" si="4"/>
+        <v>150</v>
       </c>
       <c r="F29" s="25">
-        <f t="shared" si="2"/>
-        <v>2825</v>
+        <f t="shared" si="1"/>
+        <v>3350</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>83</v>
@@ -2411,7 +2631,7 @@
         <v>72</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -2428,11 +2648,11 @@
         <v>200.0</v>
       </c>
       <c r="E30" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="F30" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2825</v>
       </c>
       <c r="G30" s="26" t="s">
@@ -2445,7 +2665,7 @@
         <v>66</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -2456,18 +2676,18 @@
         <v>62</v>
       </c>
       <c r="C31" s="24">
-        <v>2500.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D31" s="14">
         <v>200.0</v>
       </c>
       <c r="E31" s="25">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f t="shared" si="4"/>
+        <v>150</v>
       </c>
       <c r="F31" s="25">
-        <f t="shared" si="2"/>
-        <v>2825</v>
+        <f t="shared" si="1"/>
+        <v>3350</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>83</v>
@@ -2479,7 +2699,7 @@
         <v>54</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -2490,18 +2710,18 @@
         <v>64</v>
       </c>
       <c r="C32" s="24">
-        <v>2500.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D32" s="14">
         <v>200.0</v>
       </c>
       <c r="E32" s="25">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f t="shared" si="4"/>
+        <v>150</v>
       </c>
       <c r="F32" s="25">
-        <f t="shared" si="2"/>
-        <v>2825</v>
+        <f t="shared" si="1"/>
+        <v>3350</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>83</v>
@@ -2513,7 +2733,7 @@
         <v>72</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
@@ -2524,18 +2744,18 @@
         <v>66</v>
       </c>
       <c r="C33" s="24">
-        <v>2500.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D33" s="14">
         <v>200.0</v>
       </c>
       <c r="E33" s="25">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f>C33*0.06</f>
+        <v>240</v>
       </c>
       <c r="F33" s="25">
-        <f t="shared" si="2"/>
-        <v>2825</v>
+        <f t="shared" si="1"/>
+        <v>4440</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>83</v>
@@ -2547,28 +2767,28 @@
         <v>91</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" hidden="1">
       <c r="A34" s="23">
         <v>33.0</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="29">
         <v>0.0</v>
       </c>
       <c r="D34" s="14">
         <v>200.0</v>
       </c>
       <c r="E34" s="25">
-        <f t="shared" si="1"/>
+        <f>C34*0.05</f>
         <v>0</v>
       </c>
       <c r="F34" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G34" s="26" t="s">
@@ -2581,7 +2801,7 @@
         <v>86</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
@@ -2592,30 +2812,30 @@
         <v>72</v>
       </c>
       <c r="C35" s="24">
-        <v>2500.0</v>
+        <v>4000.0</v>
       </c>
       <c r="D35" s="14">
         <v>200.0</v>
       </c>
       <c r="E35" s="25">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f>C35*0.07</f>
+        <v>280</v>
       </c>
       <c r="F35" s="25">
-        <f t="shared" si="2"/>
-        <v>2825</v>
+        <f t="shared" si="1"/>
+        <v>4480</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="14" t="s">
+      <c r="H35" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="31" t="s">
         <v>52</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36">
@@ -2625,28 +2845,28 @@
       <c r="B36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="27">
-        <v>0.0</v>
+      <c r="C36" s="24">
+        <v>3000.0</v>
       </c>
       <c r="D36" s="14">
         <v>200.0</v>
       </c>
       <c r="E36" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>C36*0.05</f>
+        <v>150</v>
       </c>
       <c r="F36" s="25">
-        <f t="shared" si="2"/>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>3350</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H36" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>86</v>
+      <c r="H36" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>42</v>
       </c>
       <c r="J36" s="14" t="s">
         <v>87</v>
@@ -2654,34 +2874,52 @@
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="29">
-        <f t="shared" ref="C37:D37" si="3">SUM(C2:C36)</f>
-        <v>93100</v>
-      </c>
-      <c r="D37" s="30">
-        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="C37" s="32">
+        <f t="shared" ref="C37:D37" si="5">SUM(C2:C36)</f>
+        <v>104755</v>
+      </c>
+      <c r="D37" s="33">
+        <f t="shared" si="5"/>
         <v>7000</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="32">
         <f>SUM(E2:E35)</f>
-        <v>4655</v>
-      </c>
-      <c r="F37" s="29">
-        <f t="shared" si="2"/>
-        <v>104755</v>
-      </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
+        <v>7497.75</v>
+      </c>
+      <c r="F37" s="32">
+        <f t="shared" si="1"/>
+        <v>119252.75</v>
+      </c>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="J38" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="$J$1:$J$37"/>
+  <autoFilter ref="$J$1:$J$37">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="Transferred"/>
+        <filter val="Pending"/>
+        <filter val="Settled"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="B2:B36 I29 I32">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B2))&gt;0</formula>
@@ -2692,17 +2930,29 @@
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C37">
+  <conditionalFormatting sqref="C1:C38">
     <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(C1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J37">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J38">
       <formula1>"Pending,Status,Transferred,Settled,No Loan"</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
+  <tableParts count="10">
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2784,14 +3034,14 @@
       <c r="G2" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>24</v>
+      <c r="I2" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -2818,14 +3068,14 @@
       <c r="G3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="33" t="s">
+      <c r="H3" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="I3" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="J3" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -2852,14 +3102,14 @@
       <c r="G4" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>6</v>
+      <c r="H4" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -2886,14 +3136,14 @@
       <c r="G5" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -2904,30 +3154,30 @@
         <v>12</v>
       </c>
       <c r="C6" s="24">
-        <v>10000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="D6" s="14">
         <v>200.0</v>
       </c>
       <c r="E6" s="25">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="F6" s="25">
         <f t="shared" si="2"/>
-        <v>10700</v>
+        <v>7550</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>36</v>
+      <c r="H6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -2937,7 +3187,7 @@
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="29">
         <v>0.0</v>
       </c>
       <c r="D7" s="14">
@@ -2972,27 +3222,27 @@
         <v>16</v>
       </c>
       <c r="C8" s="24">
-        <v>0.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D8" s="14">
         <v>200.0</v>
       </c>
       <c r="E8" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F8" s="25">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>3350</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>85</v>
+      <c r="H8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>87</v>
@@ -3006,26 +3256,26 @@
         <v>18</v>
       </c>
       <c r="C9" s="24">
-        <v>0.0</v>
+        <v>3600.0</v>
       </c>
       <c r="D9" s="14">
         <v>200.0</v>
       </c>
       <c r="E9" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F9" s="25">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>3980</v>
       </c>
       <c r="G9" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="33" t="s">
+      <c r="H9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -3091,10 +3341,10 @@
         <v>83</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>87</v>
@@ -3107,7 +3357,7 @@
       <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="30">
         <v>3000.0</v>
       </c>
       <c r="D12" s="14">
@@ -3124,14 +3374,14 @@
       <c r="G12" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>6</v>
+      <c r="H12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -3158,14 +3408,14 @@
       <c r="G13" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="33" t="s">
+      <c r="H13" s="14" t="s">
         <v>52</v>
       </c>
+      <c r="I13" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="J13" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -3192,14 +3442,14 @@
       <c r="G14" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>85</v>
+      <c r="H14" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -3209,7 +3459,7 @@
       <c r="B15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="29">
         <v>3000.0</v>
       </c>
       <c r="D15" s="14">
@@ -3229,11 +3479,11 @@
       <c r="H15" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="14" t="s">
         <v>62</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -3243,7 +3493,7 @@
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="29">
         <v>0.0</v>
       </c>
       <c r="D16" s="14">
@@ -3267,7 +3517,7 @@
         <v>86</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -3277,7 +3527,7 @@
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="29">
         <v>0.0</v>
       </c>
       <c r="D17" s="14">
@@ -3301,7 +3551,7 @@
         <v>86</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -3328,14 +3578,14 @@
       <c r="G18" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>6</v>
+      <c r="H18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -3346,30 +3596,30 @@
         <v>38</v>
       </c>
       <c r="C19" s="24">
-        <v>6000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D19" s="14">
         <v>200.0</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="2"/>
-        <v>6500</v>
+        <v>3350</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="33" t="s">
-        <v>40</v>
-      </c>
       <c r="J19" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
@@ -3380,30 +3630,30 @@
         <v>40</v>
       </c>
       <c r="C20" s="24">
-        <v>4000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="D20" s="14">
         <v>200.0</v>
       </c>
       <c r="E20" s="25">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F20" s="25">
         <f t="shared" si="2"/>
-        <v>4400</v>
+        <v>3350</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="14" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -3430,14 +3680,14 @@
       <c r="G21" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>30</v>
+      <c r="H21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -3465,13 +3715,13 @@
         <v>83</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -3481,7 +3731,7 @@
       <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="29">
         <v>0.0</v>
       </c>
       <c r="D23" s="14">
@@ -3505,7 +3755,7 @@
         <v>86</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -3513,7 +3763,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C24" s="24">
         <v>2500.0</v>
@@ -3532,14 +3782,14 @@
       <c r="G24" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="33" t="s">
-        <v>52</v>
+      <c r="I24" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -3566,14 +3816,14 @@
       <c r="G25" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>96</v>
+      <c r="H25" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -3600,14 +3850,14 @@
       <c r="G26" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="33" t="s">
-        <v>88</v>
-      </c>
       <c r="J26" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -3634,14 +3884,14 @@
       <c r="G27" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="33" t="s">
-        <v>97</v>
+      <c r="H27" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -3668,14 +3918,14 @@
       <c r="G28" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="33" t="s">
+      <c r="H28" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="14" t="s">
         <v>54</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -3702,14 +3952,14 @@
       <c r="G29" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>99</v>
+      <c r="H29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -3736,14 +3986,14 @@
       <c r="G30" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="33" t="s">
-        <v>91</v>
-      </c>
       <c r="J30" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
@@ -3771,10 +4021,10 @@
         <v>83</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>87</v>
@@ -3805,10 +4055,10 @@
         <v>83</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>86</v>
+        <v>58</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="J32" s="14" t="s">
         <v>87</v>
@@ -3838,14 +4088,14 @@
       <c r="G33" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="33" t="s">
-        <v>60</v>
-      </c>
       <c r="J33" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
@@ -3855,7 +4105,7 @@
       <c r="B34" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C34" s="29">
         <v>0.0</v>
       </c>
       <c r="D34" s="14">
@@ -3879,7 +4129,7 @@
         <v>86</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35">
@@ -3906,14 +4156,14 @@
       <c r="G35" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H35" s="33" t="s">
+      <c r="H35" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="I35" s="14" t="s">
-        <v>86</v>
-      </c>
       <c r="J35" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36">
@@ -3923,7 +4173,7 @@
       <c r="B36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="29">
         <v>0.0</v>
       </c>
       <c r="D36" s="14">
@@ -3947,40 +4197,50 @@
         <v>86</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="29">
+        <v>93</v>
+      </c>
+      <c r="C37" s="32">
         <f t="shared" ref="C37:D37" si="3">SUM(C2:C36)</f>
-        <v>93500</v>
-      </c>
-      <c r="D37" s="30">
+        <v>93100</v>
+      </c>
+      <c r="D37" s="33">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="32">
         <f>SUM(E2:E35)</f>
-        <v>4675</v>
-      </c>
-      <c r="F37" s="29">
-        <f t="shared" si="2"/>
-        <v>105175</v>
-      </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
+        <v>4655</v>
+      </c>
+      <c r="F37" s="32">
+        <f t="shared" si="2"/>
+        <v>104755</v>
+      </c>
+      <c r="G37" s="34"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
+      <c r="J38" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="$J$1:$J$37"/>
-  <conditionalFormatting sqref="B2:B36 I5">
+  <conditionalFormatting sqref="B2:B36 I29 I32">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
@@ -3990,13 +4250,13 @@
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C37">
+  <conditionalFormatting sqref="C1:C38">
     <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(C1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J37">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J38">
       <formula1>"Pending,Status,Transferred,Settled,No Loan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4027,2552 +4287,1254 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="23">
+      <c r="A2" s="43">
         <v>1.0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="45">
         <v>7000.0</v>
       </c>
-      <c r="D2" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E2" s="25">
+      <c r="D2" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E2" s="47">
         <f t="shared" ref="E2:E36" si="1">C2*0.05</f>
         <v>350</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="47">
         <f t="shared" ref="F2:F37" si="2">C2+D2+E2</f>
         <v>7550</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>84</v>
+      <c r="J2" s="46" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23">
+      <c r="A3" s="43">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="45">
+        <v>5400.0</v>
+      </c>
+      <c r="D3" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E3" s="47">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="F3" s="47">
+        <f t="shared" si="2"/>
+        <v>5870</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="43">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="45">
+        <v>5400.0</v>
+      </c>
+      <c r="D4" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E4" s="47">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="F4" s="47">
+        <f t="shared" si="2"/>
+        <v>5870</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="45">
         <v>7000.0</v>
       </c>
-      <c r="D3" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E3" s="25">
+      <c r="D5" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E5" s="47">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F5" s="47">
         <f t="shared" si="2"/>
         <v>7550</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="33" t="s">
+      <c r="G5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="45">
+        <v>5400.0</v>
+      </c>
+      <c r="D6" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E6" s="47">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="F6" s="47">
+        <f t="shared" si="2"/>
+        <v>5870</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E7" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="47">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="45">
+        <v>400.0</v>
+      </c>
+      <c r="D8" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E8" s="47">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="47">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="G8" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="45">
+        <v>400.0</v>
+      </c>
+      <c r="D9" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E9" s="47">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F9" s="47">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="43">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="50">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E10" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="47">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="43">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E11" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="47">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="43">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="51">
+        <v>4000.0</v>
+      </c>
+      <c r="D12" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E12" s="47">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F12" s="47">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="43">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="45">
+        <v>2000.0</v>
+      </c>
+      <c r="D13" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E13" s="47">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F13" s="47">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="43">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="45">
+        <v>2000.0</v>
+      </c>
+      <c r="D14" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E14" s="47">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F14" s="47">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="43">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="45">
+        <v>3000.0</v>
+      </c>
+      <c r="D15" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E15" s="47">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F15" s="47">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="43">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="47">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="43">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="47">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="43">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="45">
+        <v>2000.0</v>
+      </c>
+      <c r="D18" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E18" s="47">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F18" s="47">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="43">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="45">
+        <v>4000.0</v>
+      </c>
+      <c r="D19" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E19" s="47">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F19" s="47">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G19" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="43">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="45">
+        <v>4000.0</v>
+      </c>
+      <c r="D20" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E20" s="47">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F20" s="47">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="43">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="45">
+        <v>4000.0</v>
+      </c>
+      <c r="D21" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E21" s="47">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F21" s="47">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="43">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E22" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="47">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G22" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="43">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E23" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="47">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="43">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="45">
+        <v>3000.0</v>
+      </c>
+      <c r="D24" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E24" s="47">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F24" s="47">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G24" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="43">
+        <v>24.0</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="45">
+        <v>3000.0</v>
+      </c>
+      <c r="D25" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E25" s="47">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F25" s="47">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="43">
+        <v>25.0</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="45">
+        <v>3000.0</v>
+      </c>
+      <c r="D26" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E26" s="47">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F26" s="47">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G26" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="24">
-        <v>7000.0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E4" s="25">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="F4" s="25">
-        <f t="shared" si="2"/>
-        <v>7550</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="24">
-        <v>7000.0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E5" s="25">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="F5" s="25">
-        <f t="shared" si="2"/>
-        <v>7550</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="I26" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="43">
+        <v>26.0</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="45">
+        <v>3000.0</v>
+      </c>
+      <c r="D27" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E27" s="47">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F27" s="47">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="43">
+        <v>27.0</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="45">
+        <v>2000.0</v>
+      </c>
+      <c r="D28" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E28" s="47">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F28" s="47">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="43">
+        <v>28.0</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="45">
+        <v>3000.0</v>
+      </c>
+      <c r="D29" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E29" s="47">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F29" s="47">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="43">
+        <v>29.0</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="45">
+        <v>3000.0</v>
+      </c>
+      <c r="D30" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E30" s="47">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F30" s="47">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G30" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="43">
+        <v>30.0</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E31" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="47">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="43">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E32" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="47">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G32" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="43">
+        <v>32.0</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="45">
+        <v>3000.0</v>
+      </c>
+      <c r="D33" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E33" s="47">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F33" s="47">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G33" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="43">
+        <v>33.0</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E34" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="47">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="43">
+        <v>34.0</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="45">
+        <v>3000.0</v>
+      </c>
+      <c r="D35" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E35" s="47">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F35" s="47">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="43">
+        <v>35.0</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="45">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="46">
+        <v>200.0</v>
+      </c>
+      <c r="E36" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="47">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="46" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="24">
-        <v>7000.0</v>
-      </c>
-      <c r="D6" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E6" s="25">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="F6" s="25">
-        <f t="shared" si="2"/>
-        <v>7550</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="B37" s="46" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="23">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E7" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="25">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="23">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E8" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="25">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="23">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E9" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="25">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="23">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E10" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="25">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="24">
-        <v>4000.0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E11" s="25">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F11" s="25">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="23">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="24">
-        <v>4000.0</v>
-      </c>
-      <c r="D12" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E12" s="25">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F12" s="25">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="23">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="24">
-        <v>4000.0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E13" s="25">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F13" s="25">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="23">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="24">
-        <v>4000.0</v>
-      </c>
-      <c r="D14" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E14" s="25">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F14" s="25">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="23">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="24">
-        <v>4000.0</v>
-      </c>
-      <c r="D15" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E15" s="25">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F15" s="25">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="23">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E16" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="25">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="23">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E17" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="25">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="23">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E18" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="25">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="23">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="24">
-        <v>4000.0</v>
-      </c>
-      <c r="D19" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E19" s="25">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F19" s="25">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="23">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="24">
-        <v>4000.0</v>
-      </c>
-      <c r="D20" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E20" s="25">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F20" s="25">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="23">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="24">
-        <v>4000.0</v>
-      </c>
-      <c r="D21" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E21" s="25">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F21" s="25">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="23">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="24">
-        <v>4000.0</v>
-      </c>
-      <c r="D22" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E22" s="25">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F22" s="25">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="23">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E23" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="25">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="23">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="24">
-        <v>3000.0</v>
-      </c>
-      <c r="D24" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E24" s="25">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F24" s="25">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="23">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="24">
-        <v>3500.0</v>
-      </c>
-      <c r="D25" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E25" s="25">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="F25" s="25">
-        <f t="shared" si="2"/>
-        <v>3875</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="23">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="24">
-        <v>3500.0</v>
-      </c>
-      <c r="D26" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E26" s="25">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="F26" s="25">
-        <f t="shared" si="2"/>
-        <v>3875</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="23">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="24">
-        <v>3500.0</v>
-      </c>
-      <c r="D27" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E27" s="25">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="F27" s="25">
-        <f t="shared" si="2"/>
-        <v>3875</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="23">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="24">
-        <v>3500.0</v>
-      </c>
-      <c r="D28" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E28" s="25">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="F28" s="25">
-        <f t="shared" si="2"/>
-        <v>3875</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="23">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="24">
-        <v>3500.0</v>
-      </c>
-      <c r="D29" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E29" s="25">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="F29" s="25">
-        <f t="shared" si="2"/>
-        <v>3875</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="23">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="24">
-        <v>3500.0</v>
-      </c>
-      <c r="D30" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E30" s="25">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="F30" s="25">
-        <f t="shared" si="2"/>
-        <v>3875</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="23">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="24">
-        <v>3500.0</v>
-      </c>
-      <c r="D31" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E31" s="25">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="F31" s="25">
-        <f t="shared" si="2"/>
-        <v>3875</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="23">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="24">
-        <v>3500.0</v>
-      </c>
-      <c r="D32" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E32" s="25">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="F32" s="25">
-        <f t="shared" si="2"/>
-        <v>3875</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="23">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="24">
-        <v>3500.0</v>
-      </c>
-      <c r="D33" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E33" s="25">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="F33" s="25">
-        <f t="shared" si="2"/>
-        <v>3875</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="23">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D34" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E34" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="25">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="23">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="24">
-        <v>3500.0</v>
-      </c>
-      <c r="D35" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E35" s="25">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="F35" s="25">
-        <f t="shared" si="2"/>
-        <v>3875</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="23">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D36" s="14">
-        <v>200.0</v>
-      </c>
-      <c r="E36" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="25">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="29">
+      <c r="C37" s="52">
         <f t="shared" ref="C37:D37" si="3">SUM(C2:C36)</f>
-        <v>109000</v>
-      </c>
-      <c r="D37" s="30">
+        <v>82000</v>
+      </c>
+      <c r="D37" s="53">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="E37" s="29">
-        <f>SUM(E2:E35)</f>
-        <v>5450</v>
-      </c>
-      <c r="F37" s="29">
-        <f t="shared" si="2"/>
-        <v>121450</v>
-      </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="$J$1:$J$37"/>
-  <conditionalFormatting sqref="B2:B36 I5">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C36">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(C2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C37">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(C1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J37">
-      <formula1>"Pending,Status,Transferred,Settled,No Loan"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="4.38"/>
-    <col customWidth="1" min="2" max="2" width="12.25"/>
-    <col customWidth="1" min="3" max="3" width="10.13"/>
-    <col customWidth="1" min="4" max="4" width="5.63"/>
-    <col customWidth="1" min="5" max="5" width="9.13"/>
-    <col customWidth="1" min="6" max="6" width="10.13"/>
-    <col customWidth="1" min="7" max="7" width="10.25"/>
-    <col customWidth="1" min="8" max="8" width="8.38"/>
-    <col customWidth="1" min="9" max="9" width="6.88"/>
-    <col customWidth="1" min="10" max="10" width="14.63"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="38">
-        <v>7000.0</v>
-      </c>
-      <c r="D2" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E2" s="40">
-        <f t="shared" ref="E2:E36" si="1">C2*0.05</f>
-        <v>350</v>
-      </c>
-      <c r="F2" s="40">
-        <f t="shared" ref="F2:F37" si="2">C2+D2+E2</f>
-        <v>7550</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="38">
-        <v>5400.0</v>
-      </c>
-      <c r="D3" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E3" s="40">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="F3" s="40">
-        <f t="shared" si="2"/>
-        <v>5870</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="38">
-        <v>5400.0</v>
-      </c>
-      <c r="D4" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E4" s="40">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="F4" s="40">
-        <f t="shared" si="2"/>
-        <v>5870</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="36">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="38">
-        <v>7000.0</v>
-      </c>
-      <c r="D5" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E5" s="40">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="F5" s="40">
-        <f t="shared" si="2"/>
-        <v>7550</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="36">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="38">
-        <v>5400.0</v>
-      </c>
-      <c r="D6" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E6" s="40">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="F6" s="40">
-        <f t="shared" si="2"/>
-        <v>5870</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="36">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E7" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="40">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="36">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="38">
-        <v>400.0</v>
-      </c>
-      <c r="D8" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E8" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F8" s="40">
-        <f t="shared" si="2"/>
-        <v>620</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="36">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="38">
-        <v>400.0</v>
-      </c>
-      <c r="D9" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E9" s="40">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="F9" s="40">
-        <f t="shared" si="2"/>
-        <v>620</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="36">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="43">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E10" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="40">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="36">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E11" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="40">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G11" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="36">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="44">
-        <v>4000.0</v>
-      </c>
-      <c r="D12" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E12" s="40">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F12" s="40">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="36">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="38">
-        <v>2000.0</v>
-      </c>
-      <c r="D13" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E13" s="40">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F13" s="40">
-        <f t="shared" si="2"/>
-        <v>2300</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="36">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="38">
-        <v>2000.0</v>
-      </c>
-      <c r="D14" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E14" s="40">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F14" s="40">
-        <f t="shared" si="2"/>
-        <v>2300</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="36">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="38">
-        <v>3000.0</v>
-      </c>
-      <c r="D15" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E15" s="40">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F15" s="40">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="36">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E16" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="40">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="36">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E17" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="40">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="36">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="38">
-        <v>2000.0</v>
-      </c>
-      <c r="D18" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E18" s="40">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F18" s="40">
-        <f t="shared" si="2"/>
-        <v>2300</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="36">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="38">
-        <v>4000.0</v>
-      </c>
-      <c r="D19" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E19" s="40">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F19" s="40">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="36">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="38">
-        <v>4000.0</v>
-      </c>
-      <c r="D20" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E20" s="40">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F20" s="40">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="36">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="38">
-        <v>4000.0</v>
-      </c>
-      <c r="D21" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E21" s="40">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F21" s="40">
-        <f t="shared" si="2"/>
-        <v>4400</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="36">
-        <v>21.0</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E22" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="40">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="36">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="40">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="36">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="38">
-        <v>3000.0</v>
-      </c>
-      <c r="D24" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E24" s="40">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F24" s="40">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="36">
-        <v>24.0</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="38">
-        <v>3000.0</v>
-      </c>
-      <c r="D25" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E25" s="40">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F25" s="40">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G25" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="36">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="38">
-        <v>3000.0</v>
-      </c>
-      <c r="D26" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E26" s="40">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F26" s="40">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="36">
-        <v>26.0</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="38">
-        <v>3000.0</v>
-      </c>
-      <c r="D27" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E27" s="40">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F27" s="40">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="36">
-        <v>27.0</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="38">
-        <v>2000.0</v>
-      </c>
-      <c r="D28" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E28" s="40">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F28" s="40">
-        <f t="shared" si="2"/>
-        <v>2300</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="36">
-        <v>28.0</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="38">
-        <v>3000.0</v>
-      </c>
-      <c r="D29" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E29" s="40">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F29" s="40">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G29" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="J29" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="36">
-        <v>29.0</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="38">
-        <v>3000.0</v>
-      </c>
-      <c r="D30" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E30" s="40">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F30" s="40">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="J30" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="36">
-        <v>30.0</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="D31" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E31" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="40">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G31" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="36">
-        <v>31.0</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="D32" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E32" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="40">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="36">
-        <v>32.0</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="38">
-        <v>3000.0</v>
-      </c>
-      <c r="D33" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E33" s="40">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F33" s="40">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="36">
-        <v>33.0</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="D34" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E34" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="40">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G34" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I34" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="36">
-        <v>34.0</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="38">
-        <v>3000.0</v>
-      </c>
-      <c r="D35" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E35" s="40">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F35" s="40">
-        <f t="shared" si="2"/>
-        <v>3350</v>
-      </c>
-      <c r="G35" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H35" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J35" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="36">
-        <v>35.0</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="38">
-        <v>0.0</v>
-      </c>
-      <c r="D36" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="E36" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="40">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I36" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="J36" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="45">
-        <f t="shared" ref="C37:D37" si="3">SUM(C2:C36)</f>
-        <v>82000</v>
-      </c>
-      <c r="D37" s="46">
-        <f t="shared" si="3"/>
-        <v>7000</v>
-      </c>
-      <c r="E37" s="45">
+      <c r="E37" s="52">
         <f>SUM(E2:E35)</f>
         <v>4100</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="52">
         <f t="shared" si="2"/>
         <v>93100</v>
       </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
     </row>
   </sheetData>
   <autoFilter ref="$J$1:$J$37"/>
@@ -6600,7 +5562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6611,67 +5573,88 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="57" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="59">
         <v>82000.0</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="60">
         <v>82000.0</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="61">
         <f t="shared" ref="D2:D3" si="1">C2*0.05</f>
         <v>4100</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="61">
         <v>7000.0</v>
       </c>
-      <c r="F2" s="55">
-        <f t="shared" ref="F2:F3" si="2">C2+D2+E2</f>
+      <c r="F2" s="62">
+        <f t="shared" ref="F2:F4" si="2">C2+D2+E2</f>
         <v>93100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="64">
         <v>93100.0</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="64">
         <v>93100.0</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="61">
         <f t="shared" si="1"/>
         <v>4655</v>
       </c>
-      <c r="E3" s="54">
+      <c r="E3" s="61">
         <v>7000.0</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="62">
         <f t="shared" si="2"/>
         <v>104755</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="64">
+        <v>104755.0</v>
+      </c>
+      <c r="C4" s="64">
+        <v>104755.0</v>
+      </c>
+      <c r="D4" s="65">
+        <v>7497.75</v>
+      </c>
+      <c r="E4" s="61">
+        <v>7000.0</v>
+      </c>
+      <c r="F4" s="62">
+        <f t="shared" si="2"/>
+        <v>119252.75</v>
       </c>
     </row>
   </sheetData>
